--- a/Original/CN/Dialog/Drama/elder_exile.xlsx
+++ b/Original/CN/Dialog/Drama/elder_exile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -69,9 +69,84 @@
 まあ、世俗とは無縁のこの村とて、面倒ごとの一つや二つ、ないわけではない。我らの役に立つというのなら、見逃してやろう。</t>
   </si>
   <si>
-    <t xml:space="preserve">A #race crosses the barrier and enters our village...?
-So, it must be that young one’s idea. Keh keh keh... I see. That one has  indeed no use for the bracelet anymore. Even our great father has forsaken him.
-Still, a secluded village like this isn’t entirely free from trouble now and then. If you prove useful to us, we might just turn a blind eye.</t>
+    <t xml:space="preserve">A #race crossing the barrier and entering this village...?
+So, it must be that young one’s doing. Keh keh keh... Aye, the bracelet is of no more use to him. Even our master Itzpalt hath cast him aside.
+Though this village is far from the world of men, we are not free from trouble. If thou wouldst serve our purpose, we may turn a blind eye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,*negotiation_darkness,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イスシズルを知っているか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know of Issizzle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,*negotiation_darkness,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;=,duponne_rescue,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌを発見したが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found Duponne, but...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,duponne_rescue,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミノタウロスの角について</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About the Great Horn of Minotaur...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌを連れて帰った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I brought back Duponne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_killed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌを始末した</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have slain Duponne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_gone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌはどこかへ行ってしまった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne is gone forever.</t>
   </si>
   <si>
     <t xml:space="preserve">inject</t>
@@ -84,6 +159,308 @@
   </si>
   <si>
     <t xml:space="preserve">cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇の奇形「イスシズル」。キキキ…その名を知らぬ者が、この村にいようか？
+不浄なる存在に魂を貶める前は、神に最も近しき魔術師とも謳われた者よ。
+厄介な敵を持ったものだ。いかに我らといえど、彼奴に対抗できるほどの使い手はおらぬ。仮にいたとしても、世の騒ぎには関与すまい。追放者というものは、つまるところ、己の贖罪にしか興味がないのだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dark abomination, Issizzle. Keh keh keh... Who here could claim ignorance of that name?
+Before he debased his soul with unclean flesh, he was hailed as the sorcerer closest to the gods.
+A troublesome foe indeed. Not even among us is there one strong enough to oppose him. And if such a one did exist, he would still not stoop to the quarrels of the world. For an exile is bound solely to his own atonement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…だが…待て待て、汝のような冒険者にふさわしい仕事が、ちょうど一つあるのだ。首尾よくこなせば、汝が求める「知識」を授けよう。我らが古代より受け継ぐ秘術のレシピ、イスシズルを退ける刃となるやも知れぬ力だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Yet wait, adventurer. There is one task most fitting for thee. Shouldst thou succeed, I shall grant thee knowledge—an ancient recipe passed down from of old. A secret craft that may forge a blade against Issizzle himself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…さて、どこから話すべきか。
+この村の南東にルーリエという神殿があるのを、汝は知っているか？　神々が地上から去り、今はもう海の底に沈んだ哀しきルーリエ…その神殿で、我は暮らしていたのだ。かつて、まだ人間だった頃な。
+神殿には、どこからか迷い混んだ大食いトドの子が一匹いて、我になついていた。名はデュポンヌといい、愚かしいほど食い意地の張ったやつだったが…キキキ…あの鈍重で愛らしい獣に、我は奇妙なほど情を注いでいたものだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Now, where to begin?
+Dost thou know of the temple called Lurie, southeast of this village? When the gods departed this world, the shrine sank beneath the sea. There I once dwelt, in the days when I was still mortal.
+A hungry sea-lion pup strayed within its halls. She clung to me, aye. Her name was Duponne. Foolish, greedy thing... keh keh keh... Yet I grew strangely fond of that slow, endearing beast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やがて我は死に、生前の罪ゆえに、この村で果てなき贖罪を続ける定めとなった。もう幾千年も昔のことだ。
+あれから実に長い年月が過ぎた。だが、不思議なことに…おお、今になってなお、我は感じるのだ！ デュポンヌが生きている気配を！
+キキキ…我には聞こえるのだよ、海の底に忘れられた、あの子の悲しい鳴き声が。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In time I died, and for the sins of my life was bound to endless penance in this village. That was thousands of years ago.
+Ages have drifted by then, indeed. Yet strangely... even now, I feel it! The presence of Duponne, still alive! 
+Keh keh keh... I hear it clearly... the sorrowful cry of that child, forgotten in the deep sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…汝には、深き水底の檻から、デュポンヌを連れ戻して欲しいのだ。
+果たしてあの子がまだトドのままなのか、あるいは何かしらの化け物へと変じてしまったのか…それは分からぬ。もし救うことが叶わぬならば、悲しき獣に永遠の安らぎを与えてやってくれ。それが我の望みだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...I ask thee, bring Duponne forth from her prison beneath the waves.
+Whether she remains the sea-lion she once was, or hath become some dreadful monster, I cannot say. If she cannot be saved, then grant the poor beast eternal rest. That is my wish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…それにしても、よくよく愚かな子だ。数千年も生き抜く力があるのなら、なぜあのような廃墟に…キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Still the same foolish child. To have the power to live for millennia, and yet dwell in such a ruin... keh keh keh...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nextPhase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negotiation_darkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌが巨大な竜に…？
+なんとも奇怪な…あれは確かに大食いトドの子だった。いや…人間の頃の記憶は、とかく薄れやすいものだ。
+ともかく、そのような巨体ともなれば、引きずって連れて帰るわけにもいかぬだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne, grown into a dragon...? 
+How bizarre... I recall her as naught but a hungry sea-lion pup. Yet mortal memories do fade swiftly.
+In any case, with such a vast form, thou couldst hardly drag her back here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescue,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_found3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_mino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古の魔道具、「竜の捕獲玉」を用いれば、あるいはデュポンヌを捕らえることができるやも知れぬ。
+だが…キキキ…あいにくと、この道具を作るための材料が、この村には不足しているのだ。
+「ミノタウロスの大角」と呼ばれる希少な素材だが…そういえば、ヨウィンの南あたりで、ミノタウロスの群れが巣を作っていたな、キキキ…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">If one were to use the ancient device known as the Dragon Orb, perchance Duponne might be bound.
+But... keh keh keh... the ingredients to fashion such a tool are wanting in this village. Aye, the rare ingredient called the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Great Horn of Minotaur.
+...Although, I seem to remember a herd of minotaurs dwelling south of Yowyn, keh keh keh...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">おお、汝が持っているのは「ミノタウロスの大角」ではないか？
+キキキ…これでデュポンヌを連れて帰るための捕獲玉が作れるぞ。
+捕獲玉の使い方は、冒険者の汝には説明する必要もなかろう。キキキ…そう、手に持って、相手に投げるだけだからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah! Thou bearest the Great Horn of Minotaur!
+With this ingredient, the orb to bring Duponne back may be forged.
+...Its use? Surely an adventurer like thee needeth no lesson. Keh keh keh... aye, simply hold it, and cast it at the beast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_rescue,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌは…そうか…汝がそう判断したというなら、何も言うまい。
+海の底で幾千年もの時を、いったい何があの子をルーリエの廃墟に留めていたのか…いや、今更詮索しても意味のないことだ。キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne... I see. If such was thy judgment, I shall say no more. 
+What kept her to the sunken ruins for ages beyond count... nay, to seek the answer now is folly. Keh keh keh... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duponne_reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…心配は無用だ。汝との約束を忘れはせぬ。
+古より伝わる秘術のレシピを汝に授けん。ルーン鋳造…人の世から久しく失われた、貴重な知識だ。イスシズルとの戦いにおいて、必ずや汝の助けとなろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Worry not. The promise I made to thee I shall not forsake. 
+I shall grant thee a recipe of ancient sorcery—Rune Forging, a knowledge long lost to men. In thy battle with Issizzle, it shall surely serve thee well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…汝との取引は成った。さあ、立ち去るがよい、キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our bargain is fulfilled. Now begone, adventurer. Keh keh keh...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…デュポンヌ！　デュポンヌなのか！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Duponne! Is it truly thee!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warcry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lurie_boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グウォオオォォオオン！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROOOOAAARRRR!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おお、なんという恐ろしい咆哮！ 我を食おうとしているのか…？ 
+キキキ…そうだろう。我のことなど覚えてはいまいな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah, what a dreadful roar! Dost thou mean to devour me?
+Keh keh keh... Aye, I suppose thou rememberest me not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グウォオオォォオオォォォォォン！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROOOOAAAOOOONNNNN!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…しかし、お主が竜だったとは。
+いや、その元気な姿を再び見れただけで、我は満足だよ。このしわがれた命などおしくもない。さあ、お主の好きにするがいい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Thou wert a dragon all along.
+Still, to behold thee alive once more is enough for me. This withered life I do not prize. Do as thou wilt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グウォオオ…グルルゥ……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRRRRUUUUMMM... WHIIINE...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌ…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グルゥゥ……クゥン……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIIINE... WHIIIIIINE...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌ、まさかお主、我がわかるのか？
+ハッ…！　その首のリボンは、人間だった頃にふざけてお主に着けた…
+お主、そんなものをまだ大事そうに…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What, Duponne... can it be, thou rememberest me?
+Ah...! That ribbon round thy neck! ’tis the very one I fastened upon thee in jest, long, long ago.
+And thou hast cherished it all these years...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クゥゥン…クゥゥウン…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIIINE... WHIMPER...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デュポンヌ、そうか…そうか、キキキ…
+…我はお主を海の底に置き去りにし、果てなき贖罪に囚われていた。だが、数千年の時を経ても、お主は我を見捨てはせなんだのだな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duponne... so it is... so it is. Keh keh keh...
+I left thee in the ocean’s depths, bound myself to endless penance. Yet even after thousands of years, thou hast not forsaken me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クゥン……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIMPER... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">…愚かな我を、赦してくれ、デュポンヌ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgive me, Duponne... Forgive this foolish soul of mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クゥゥン……ウォオオオオン……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHIIIINE... GROOOOANNN...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おお、デュポンヌ…！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, Duponne...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…キキキ、心配は無用だ。汝との約束を忘れてはおらぬ。
+古より伝わる秘術のレシピを汝に授けよう。ルーン鋳造…人の世から久しく失われた、貴重な知識だ。イスシズルとの戦いにおいて、必ずや助けとなろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keh keh keh... Worry not. The promise I made to thee I shall not forsake. 
+I shall grant thee a recipe of ancient sorcery—Rune Forging, a knowledge long lost to men. In thy battle with Issizzle, it shall surely serve thee well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さて、デュポンヌよ、早速村の皆にお主を紹介せねばならぬな！
+キキキ…怖がらなくてもいい。不気味な顔をしているが、悪い者たちではない。お主なら、きっと村の人気者になるだろう。
+さあ、デュポンヌ、こっちにおいで。共に生きようではないか…また、ルーリエでの、あの頃のように…キキキ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now then, Duponne, we must show thee to the village folk!
+Keh keh keh... Do not fear. Their faces are grim, but they mean thee no harm. Thou shalt become a favorite among them, I think.
+Come now, Duponne, come hither. Let us live together once more... as we did in those days at Lurie. Keh keh keh...</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -92,6 +469,133 @@
     <t xml:space="preserve">#race穿过结界到了这个村子…？
 原来如此，是那个小子出的主意吧。嘻嘻嘻…他确实不再需要「手环」了。毕竟就连我们伟大的主人伊兹帕鲁特大人都已经抛弃了他。
 也罢，这村子远离尘世，也总有些自己才知道的麻烦事。如果外人来了能派上些用场，就让他们来吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你知道伊斯西泽尔吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发现了迪伯妮但是…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关于牛头人的大角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我带回了迪伯妮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我杀了迪伯妮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪伯妮不知去了哪里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗之畸形「伊斯西泽尔」。嘻嘻嘻…这个村子怎会有人不知道这名字？
+在他的灵魂被不净之物玷污前，可是被誉为最接近神灵的魔法师。
+你们招惹了麻烦的敌人。就算是我们也没有能与他对抗的手段。就算是有办法，我们也不会参与这场世俗的纷争。说到底，流放者只对怎么赎罪感兴趣。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不过…嘻嘻嘻…你也不必急着走…，眼下正好有适合交给你这种冒险者做的工作。如果你能顺利完成的话，也可授予你所渴求的「知识」。我们自古传承的秘术的配方，也许能成为用来击退伊斯西泽尔的武器。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后来我迎来了死亡，但因生前的罪孽，我注定要在这个村子里无尽地赎罪。而这都已经是几千年前的事了。
+从那之后已经度过了漫长的岁月。但不可思议的是…哦哦，时至今日，我还感觉得到！迪伯妮还活着！
+嘻嘻嘻…我可以听到，那孩子被遗忘在海底发出的悲鸣。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…希望你能把迪伯妮从那深水之狱中带回来。
+我不知道那孩子依旧是海狮，还是变成了什么怪物…。如果它已经没有了获救的希望，就请你让那只悲伤的野兽永远的安息。这就是我的愿望。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘻嘻嘻…话说回来，它还真是个笨孩子。都有本事活几千年，为什么还要留在那废墟中…嘻嘻嘻…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪伯妮，变成了巨大的龙…？
+这可真是奇怪…我记得它确实是暴食海狮的幼崽…不对，人类时的记忆，早就淡去了。
+但不管怎么说，变成那种庞然大物，也不容易带回来了吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果用古老的魔道具「龙捕获球」的话，也许可以捕捉到迪伯妮。
+但是…嘻嘻嘻…很不凑巧，这个村子里缺乏制作的材料。
+它需要被称为「牛头人的大角」的稀有素材…说起来，有一群牛头人在约恩村南边筑了巢呢，嘻嘻嘻…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦哦，你拿的那不就是「牛头人的大角」吗？
+嘻嘻嘻…这样就能制作出把迪伯妮带回来的捕获球了。
+捕获球的使用方法，就不用对你这样的冒险者说明了吧。嘻嘻嘻…用手拿着丢向对方就可以。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪伯妮它…这样啊…既然你觉得应该这么做，我也不说什么了。
+在这几千年的岁月里，那孩子为什么一直留在露里耶的废墟…算了，现在再去追究也没什么意义了。嘻嘻嘻…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘻嘻嘻…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…不用担心。我没有忘记和你的约定。
+﻿
+接下来就把自古传承下来的秘术配方传授给你。卢恩铸造…这是人世间失传已久的宝贵知识。在和伊斯西泽尔的战斗中，它一定能帮到你。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…我们之间的交易结束了。好了，你可以走了，嘻嘻嘻…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…迪伯妮！　真的是迪伯妮吗！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕嗷嗷嗷嗷嗷嗷！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦哦，何等恐怖的咆哮！ 是想吃了我吗…？ 
+嘻嘻嘻…真有精神。我想，你大概已经把我给忘了吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕嗷嗷嗷嗷嗷嗷嗷嗷嗷嗷！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…没想到，你原来是只龙啊。
+看到你这么精神的样子，我就满足了。老朽这条烂命死不足惜。来吧，随你喜欢吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕嗷…咕噜噜……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪伯妮...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕噜咕噜…咕……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪伯妮，难道说，你还记得我吗？
+啊…！　你脖子上的蝴蝶结，是我还是人类的时候开玩笑给你戴上的…
+你竟然如此珍惜它…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕噜…咕噜…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迪伯妮，这样啊…这样啊，嘻嘻嘻…
+…我把你留在了海底，自己则被囚禁在无尽的赎罪中。但时隔千年，你还是没有抛弃我吗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕噜…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…原谅愚蠢的我吧，迪伯妮。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕噜……咕嗷嗷嗷……！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哦哦，迪伯妮...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…嘻嘻嘻、不用担心。我没有忘记和你的约定。
+接下来就把自古传承下来的秘术配方传授给你。卢恩铸造…这是从人世间失传已久的宝贵知识。在和伊斯西泽尔的战斗中，它一定能帮到你。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好了，迪伯妮。我要快点把你介绍给村里的其他人！
+嘻嘻嘻…不用害怕。大家虽然脸长的很诡异，但都不是坏人。你一定会成为村子里的大明星。
+过来，迪伯妮，来这边。以后我们就一起生活下去，…就像在露里耶的那个时候一样…嘻嘻嘻……</t>
   </si>
 </sst>
 </file>
@@ -101,7 +605,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,6 +644,26 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,7 +688,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection locked="1"/>
@@ -188,8 +712,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -214,14 +742,43 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -412,17 +969,17 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L106" sqref="L106"/>
+      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="8.85" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.55" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.28" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.85" style="1" customWidth="1"/>
@@ -475,7 +1032,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -488,7 +1045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="89.55">
+    <row r="8" ht="79.85">
       <c r="I8" s="1">
         <v>1</v>
       </c>
@@ -499,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -507,26 +1064,889 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" ht="12.8">
-      <c r="E10" s="1" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" ht="12.8">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" ht="12.8">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" ht="12.8">
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="12.8">
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="K12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" ht="12.8">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" ht="12.8">
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8">
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8">
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="113.4">
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8">
+      <c r="I28" s="1">
+        <v>9</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" ht="113.4">
+      <c r="J29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" ht="91">
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" ht="68.65">
+      <c r="I31" s="1">
+        <v>11</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" ht="23.85">
+      <c r="I32" s="1">
+        <v>12</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="E33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" ht="12.8">
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="79.85">
+      <c r="I40" s="1">
+        <v>13</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" ht="12.8">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" ht="12.8">
+      <c r="E42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" ht="12.8">
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" ht="12.8">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" ht="12.8">
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" ht="12.8">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" ht="98.5">
+      <c r="I49" s="1">
+        <v>14</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" ht="12.8">
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" ht="12.8">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" ht="74.6">
+      <c r="I55" s="1">
+        <v>15</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" ht="12.8">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" ht="12.8">
+      <c r="E57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" ht="12.8">
+      <c r="E58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" ht="12.8">
+      <c r="E59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" ht="12.8">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" ht="46.25">
+      <c r="I65" s="1">
+        <v>16</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" ht="13.8">
+      <c r="I66" s="1">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" ht="13.8">
+      <c r="I67" s="1">
+        <v>18</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" ht="12.8">
+      <c r="E68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" ht="57.45">
+      <c r="I69" s="1">
+        <v>19</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8">
+      <c r="I70" s="1">
+        <v>20</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" ht="12.8">
+      <c r="E71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" ht="13.8">
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" ht="12.8">
+      <c r="E73" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" ht="12.8">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" ht="13.8">
+      <c r="I77" s="1">
+        <v>21</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" ht="13.8">
+      <c r="E78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" ht="13.8">
+      <c r="G79" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I79" s="1">
+        <v>22</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" ht="35.05">
+      <c r="I80" s="1">
+        <v>23</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" ht="12.8">
+      <c r="E81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" ht="13.8">
+      <c r="G82" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="1">
+        <v>24</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" ht="46.25">
+      <c r="G83" s="11"/>
+      <c r="I83" s="1">
+        <v>25</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" ht="13.8">
+      <c r="G84" s="11"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" ht="13.8">
+      <c r="G85" s="11"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" ht="13.8">
+      <c r="G86" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="1">
+        <v>26</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" ht="13.8">
+      <c r="G87" s="11"/>
+      <c r="I87" s="1">
+        <v>27</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" ht="13.8">
+      <c r="G88" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I88" s="1">
+        <v>28</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" ht="68.65">
+      <c r="G89" s="11"/>
+      <c r="I89" s="1">
+        <v>29</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" ht="13.8">
+      <c r="G90" s="11"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" ht="13.8">
+      <c r="G91" s="11"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" ht="12.8">
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" ht="12.8">
+      <c r="E93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="1">
+        <v>12</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" ht="13.8">
+      <c r="G94" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" s="1">
+        <v>30</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" ht="53.7">
+      <c r="I95" s="1">
+        <v>31</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" ht="13.8">
+      <c r="G96" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I96" s="1">
+        <v>32</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" ht="13.8">
+      <c r="I97" s="1">
+        <v>33</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" ht="13.8">
+      <c r="E98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" ht="13.8">
+      <c r="G99" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I99" s="1">
+        <v>34</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" ht="13.8">
+      <c r="I100" s="1">
+        <v>35</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8">
+      <c r="G101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" s="1">
+        <v>36</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" ht="13.8">
+      <c r="I102" s="1">
+        <v>37</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" ht="13.8">
+      <c r="E103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J103" s="12"/>
+    </row>
+    <row r="104" ht="64.15">
+      <c r="I104" s="1">
+        <v>38</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" ht="13.8">
+      <c r="J105" s="12"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" ht="85.05">
+      <c r="I106" s="1">
+        <v>39</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" ht="13.8">
+      <c r="E107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J107" s="12"/>
+    </row>
+    <row r="108" ht="13.8">
+      <c r="E108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J108" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I1048576">
+  <conditionalFormatting sqref="I4:I11 I21:I26 I19 I33:I39 I56:I64 I71:I76 I41:I54 I68 I103 I106:I1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I32 I40 I69:I70 I104:I105 I12:I18 I55 I65:I67 I77:I102">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Original/CN/Dialog/Drama/elder_exile.xlsx
+++ b/Original/CN/Dialog/Drama/elder_exile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -74,13 +74,25 @@
 Though this village is far from the world of men, we are not free from trouble. If thou wouldst serve our purpose, we may turn a blind eye.</t>
   </si>
   <si>
+    <t xml:space="preserve">about_issizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=,*negotiation_darkness,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イスシズルについて教えて欲しい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about Issizzle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">duponne</t>
   </si>
   <si>
     <t xml:space="preserve">=,*negotiation_darkness,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice</t>
   </si>
   <si>
     <t xml:space="preserve">イスシズルを知っているか？</t>
@@ -197,11 +209,11 @@
 Keh keh keh... I hear it clearly... the sorrowful cry of that child, forgotten in the deep sea.</t>
   </si>
   <si>
-    <t xml:space="preserve">…汝には、深き水底の檻から、デュポンヌを連れ戻して欲しいのだ。
+    <t xml:space="preserve">汝に、深き水底の檻から、デュポンヌを連れ戻して欲しいのだ。
 果たしてあの子がまだトドのままなのか、あるいは何かしらの化け物へと変じてしまったのか…それは分からぬ。もし救うことが叶わぬならば、悲しき獣に永遠の安らぎを与えてやってくれ。それが我の望みだ。</t>
   </si>
   <si>
-    <t xml:space="preserve">...I ask thee, bring Duponne forth from her prison beneath the waves.
+    <t xml:space="preserve">I ask thee, bring Duponne forth from her prison beneath the waves.
 Whether she remains the sea-lion she once was, or hath become some dreadful monster, I cannot say. If she cannot be saved, then grant the poor beast eternal rest. That is my wish.</t>
   </si>
   <si>
@@ -246,8 +258,8 @@
   </si>
   <si>
     <t xml:space="preserve">古の魔道具、「竜の捕獲玉」を用いれば、あるいはデュポンヌを捕らえることができるやも知れぬ。
-だが…キキキ…あいにくと、この道具を作るための材料が、この村には不足しているのだ。
-「ミノタウロスの大角」と呼ばれる希少な素材だが…そういえば、ヨウィンの南あたりで、ミノタウロスの群れが巣を作っていたな、キキキ…</t>
+だが…キキキ…あいにくと、この道具を作るための材料が、この村には不足しておってな。
+「ミノタウロスの大角」と呼ばれる希少な素材だが…そういえば、ヨウィンの南あたりで、ミノタウロスの群れが巣を作っていたか、キキキ…</t>
   </si>
   <si>
     <r>
@@ -410,8 +422,8 @@
     <t xml:space="preserve">WHIIINE... WHIMPER...</t>
   </si>
   <si>
-    <t xml:space="preserve">デュポンヌ、そうか…そうか、キキキ…
-…我はお主を海の底に置き去りにし、果てなき贖罪に囚われていた。だが、数千年の時を経ても、お主は我を見捨てはせなんだのだな。</t>
+    <t xml:space="preserve">デュポンヌ、そうか…そうだったのか、キキキ…
+我はお主を海の底に置き去りにし、果てなき贖罪に囚われていた。だが、数千年の時を経ても、お主は我を見捨てはせなんだのだな。</t>
   </si>
   <si>
     <t xml:space="preserve">Duponne... so it is... so it is. Keh keh keh...
@@ -424,7 +436,7 @@
     <t xml:space="preserve">WHIMPER... </t>
   </si>
   <si>
-    <t xml:space="preserve">…愚かな我を、赦してくれ、デュポンヌ。</t>
+    <t xml:space="preserve">…愚かな我を赦してくれ、デュポンヌ。</t>
   </si>
   <si>
     <t xml:space="preserve">Forgive me, Duponne... Forgive this foolish soul of mine.</t>
@@ -463,6 +475,19 @@
 Come now, Duponne, come hither. Let us live together once more... as we did in those days at Lurie. Keh keh keh...</t>
   </si>
   <si>
+    <t xml:space="preserve">イスシズルがまだ人間だった頃、王侯貴族はこぞって彼の者に助力を乞うたものだ。キキキ…彼の者の強大な魔力を持ってすれば、地上の国々を支配するなど造作もないことだろう。
+イスシズルが今も朽ちた古城で魔石の研究に明け暮れているのは、つまるところ、人の世界の権力も名声も、彼の者の尺度では塵に等しいためにほかならぬ。
+忘れるなかれ。汝らの相対しようとしている者は、地上のいさかいなどとは別次元の領域にいる。汝らは、神話の門戸に手をかけようとしているのだよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Issizle was yet a man, kings and nobles alike bent their knees to beg his aid. Keh keh keh... With the power he wielded, to subjugate the realms of earth would have been but a trifle.
+Yet he abideth still in his ruined castle, lost in endless study of the magic stones. For to his sight, the crowns and glories of mankind are but dust.
+Forget this not. The one thou wouldst face dwelleth in a realm far beyond the petty quarrels of earth. Thou standest now with thy hand upon the very gates of myth. Keh keh keh...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -471,6 +496,9 @@
 也罢，这村子远离尘世，也总有些自己才知道的麻烦事。如果外人来了能派上些用场，就让他们来吧。</t>
   </si>
   <si>
+    <t xml:space="preserve">请和我讲讲伊斯西泽尔吧</t>
+  </si>
+  <si>
     <t xml:space="preserve">你知道伊斯西泽尔吗？</t>
   </si>
   <si>
@@ -497,12 +525,17 @@
     <t xml:space="preserve">不过…嘻嘻嘻…你也不必急着走…，眼下正好有适合交给你这种冒险者做的工作。如果你能顺利完成的话，也可授予你所渴求的「知识」。我们自古传承的秘术的配方，也许能成为用来击退伊斯西泽尔的武器。</t>
   </si>
   <si>
+    <t xml:space="preserve">嘻嘻嘻…好吧，从哪里开始讲呢。
+你知道吗？这个村子的东南方有个叫露里耶的神殿。众神从地上离去之后，露里耶神殿如今只能可悲地沉入海底…在我还是人类的时候，曾在那个神殿生活过。
+神殿里不知从哪里迷路来了一只暴食海狮幼崽，它叫迪伯妮，对我很亲近。虽然是个愚蠢又贪吃的家伙…嘻嘻嘻…但我对那笨拙可爱的小东西倾注了多到不可思议的感情。</t>
+  </si>
+  <si>
     <t xml:space="preserve">后来我迎来了死亡，但因生前的罪孽，我注定要在这个村子里无尽地赎罪。而这都已经是几千年前的事了。
 从那之后已经度过了漫长的岁月。但不可思议的是…哦哦，时至今日，我还感觉得到！迪伯妮还活着！
 嘻嘻嘻…我可以听到，那孩子被遗忘在海底发出的悲鸣。</t>
   </si>
   <si>
-    <t xml:space="preserve">…希望你能把迪伯妮从那深水之狱中带回来。
+    <t xml:space="preserve">希望你能把迪伯妮从那深水之狱中带回来。
 我不知道那孩子依旧是海狮，还是变成了什么怪物…。如果它已经没有了获救的希望，就请你让那只悲伤的野兽永远的安息。这就是我的愿望。</t>
   </si>
   <si>
@@ -573,8 +606,8 @@
     <t xml:space="preserve">咕噜…咕噜…</t>
   </si>
   <si>
-    <t xml:space="preserve">迪伯妮，这样啊…这样啊，嘻嘻嘻…
-…我把你留在了海底，自己则被囚禁在无尽的赎罪中。但时隔千年，你还是没有抛弃我吗。</t>
+    <t xml:space="preserve">迪伯妮，这样啊…原来是这样啊，嘻嘻嘻…
+我把你留在了海底，自己则被囚禁在无尽的赎罪中。但时隔千年，你还是没有抛弃我吗。</t>
   </si>
   <si>
     <t xml:space="preserve">咕噜…</t>
@@ -596,6 +629,11 @@
     <t xml:space="preserve">好了，迪伯妮。我要快点把你介绍给村里的其他人！
 嘻嘻嘻…不用害怕。大家虽然脸长的很诡异，但都不是坏人。你一定会成为村子里的大明星。
 过来，迪伯妮，来这边。以后我们就一起生活下去，…就像在露里耶的那个时候一样…嘻嘻嘻……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当伊斯西泽尔还是人类的时候，王侯贵族都曾争着乞求他的帮助。嘻嘻嘻…凭他强大的魔力，想支配大地上的王国也仅是不值得一提的小事罢了。
+伊斯西泽尔至今都甘愿在朽烂的古城夜以继日地研究魔石，换句话说，人类世界的权力也好名声也罢，对他而言都与尘埃无异。
+别忘了这点。你们将要面对的敌人，是超脱俗世纷争之人。你们正要叩响神话的大门。</t>
   </si>
 </sst>
 </file>
@@ -969,12 +1007,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L106" sqref="L106"/>
-      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L113" sqref="L113"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -1032,7 +1070,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -1056,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -1082,16 +1120,16 @@
         <v>18</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -1101,31 +1139,28 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" ht="12.8">
       <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1134,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>28</v>
@@ -1143,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -1151,13 +1186,16 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>32</v>
@@ -1166,7 +1204,7 @@
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -1180,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>36</v>
@@ -1189,471 +1227,495 @@
         <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" ht="12.8">
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8">
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
         <v>7</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" ht="12.8">
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="19" ht="12.8">
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" ht="12.8">
-      <c r="E21" s="1" t="s">
-        <v>43</v>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" ht="12.8">
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="12.8">
       <c r="E22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" ht="113.4">
-      <c r="I27" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8">
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="113.4">
+      <c r="I28" s="1">
         <v>8</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" ht="13.8">
-      <c r="I28" s="1">
+      <c r="J28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" ht="13.8">
+      <c r="I29" s="1">
         <v>9</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" ht="113.4">
-      <c r="J29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" ht="91">
+      <c r="J29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" ht="113.4">
       <c r="I30" s="1">
+        <v>40</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" ht="91">
+      <c r="I31" s="1">
         <v>10</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" ht="68.65">
-      <c r="I31" s="1">
+      <c r="J31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" ht="68.65">
+      <c r="I32" s="1">
         <v>11</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" ht="23.85">
-      <c r="I32" s="1">
+      <c r="J32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" ht="23.85">
+      <c r="I33" s="1">
         <v>12</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
-      <c r="E33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
-      <c r="E36" s="1" t="s">
+      <c r="J33" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" ht="12.8">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" ht="79.85">
-      <c r="I40" s="1">
+      <c r="K33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="E34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" ht="12.8">
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" ht="79.85">
+      <c r="I41" s="1">
         <v>13</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
-      <c r="F41" s="10"/>
+      <c r="J41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="42" ht="12.8">
-      <c r="E42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" ht="12.8">
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" ht="12.8">
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" ht="12.8">
+      <c r="A47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" ht="12.8">
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" ht="12.8">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" ht="98.5">
+      <c r="I50" s="1">
+        <v>14</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" ht="12.8">
+      <c r="E52" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" ht="12.8">
-      <c r="B43" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" ht="12.8">
-      <c r="A46" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
-      <c r="B47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" ht="98.5">
-      <c r="I49" s="1">
-        <v>14</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" ht="12.8">
-      <c r="E51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
-      <c r="A53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" ht="74.6">
-      <c r="I55" s="1">
+    <row r="54" ht="12.8">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" ht="74.6">
+      <c r="I56" s="1">
         <v>15</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
-      <c r="F56" s="10"/>
+      <c r="J56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="57" ht="12.8">
-      <c r="E57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" ht="12.8">
       <c r="E58" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" ht="12.8">
       <c r="E59" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
-      <c r="A63" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" ht="46.25">
-      <c r="I65" s="1">
+        <v>76</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" ht="12.8">
+      <c r="E60" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" ht="12.8">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" ht="46.25">
+      <c r="I66" s="1">
         <v>16</v>
       </c>
-      <c r="J65" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" ht="13.8">
-      <c r="I66" s="1">
-        <v>17</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>77</v>
+      <c r="J66" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="L66" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" ht="13.8">
       <c r="I67" s="1">
+        <v>17</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" ht="13.8">
+      <c r="I68" s="1">
         <v>18</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
-      <c r="E68" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" ht="57.45">
-      <c r="I69" s="1">
+      <c r="J68" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" ht="12.8">
+      <c r="E69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" ht="57.45">
+      <c r="I70" s="1">
         <v>19</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" ht="13.8">
-      <c r="I70" s="1">
+      <c r="J70" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" ht="13.8">
+      <c r="I71" s="1">
         <v>20</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
-      <c r="E71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" ht="13.8">
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" ht="12.8">
-      <c r="E73" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
-      <c r="A75" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" ht="13.8">
-      <c r="I77" s="1">
+      <c r="J71" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" ht="12.8">
+      <c r="E72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" ht="13.8">
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" ht="12.8">
+      <c r="E74" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" ht="12.8">
+      <c r="A76" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" ht="13.8">
+      <c r="I78" s="1">
         <v>21</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L77" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" ht="13.8">
-      <c r="E78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="5"/>
+      <c r="J78" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L78" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="79" ht="13.8">
-      <c r="G79" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" s="1">
+      <c r="E79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" ht="13.8">
+      <c r="G80" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I80" s="1">
         <v>22</v>
       </c>
-      <c r="J79" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K79" s="6" t="s">
+      <c r="J80" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" ht="35.05">
+      <c r="I81" s="1">
+        <v>23</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" ht="12.8">
+      <c r="E82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" ht="35.05">
-      <c r="I80" s="1">
-        <v>23</v>
-      </c>
-      <c r="J80" s="7" t="s">
+      <c r="F82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" ht="13.8">
+      <c r="G83" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L80" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" ht="12.8">
-      <c r="E81" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" ht="13.8">
-      <c r="G82" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I82" s="1">
+      <c r="I83" s="1">
         <v>24</v>
       </c>
-      <c r="J82" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L82" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" ht="46.25">
-      <c r="G83" s="11"/>
-      <c r="I83" s="1">
+      <c r="J83" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" ht="46.25">
+      <c r="G84" s="11"/>
+      <c r="I84" s="1">
         <v>25</v>
       </c>
-      <c r="J83" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L83" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" ht="13.8">
-      <c r="G84" s="11"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="5"/>
+      <c r="J84" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L84" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="85" ht="13.8">
       <c r="G85" s="11"/>
@@ -1661,291 +1723,320 @@
       <c r="K85" s="5"/>
     </row>
     <row r="86" ht="13.8">
-      <c r="G86" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I86" s="1">
+      <c r="G86" s="11"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" ht="13.8">
+      <c r="G87" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87" s="1">
         <v>26</v>
       </c>
-      <c r="J86" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L86" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" ht="13.8">
-      <c r="G87" s="11"/>
-      <c r="I87" s="1">
+      <c r="J87" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" ht="13.8">
+      <c r="G88" s="11"/>
+      <c r="I88" s="1">
         <v>27</v>
       </c>
-      <c r="J87" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L87" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" ht="13.8">
-      <c r="G88" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I88" s="1">
+      <c r="J88" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" ht="13.8">
+      <c r="G89" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I89" s="1">
         <v>28</v>
       </c>
-      <c r="J88" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" ht="68.65">
-      <c r="G89" s="11"/>
-      <c r="I89" s="1">
+      <c r="J89" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" ht="68.65">
+      <c r="G90" s="11"/>
+      <c r="I90" s="1">
         <v>29</v>
       </c>
-      <c r="J89" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" ht="13.8">
-      <c r="G90" s="11"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="5"/>
+      <c r="J90" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L90" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="91" ht="13.8">
       <c r="G91" s="11"/>
       <c r="J91" s="9"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" ht="12.8">
-      <c r="J92" s="5"/>
+    <row r="92" ht="13.8">
+      <c r="G92" s="11"/>
+      <c r="J92" s="9"/>
       <c r="K92" s="5"/>
     </row>
     <row r="93" ht="12.8">
-      <c r="E93" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F93" s="1">
-        <v>12</v>
-      </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" ht="13.8">
-      <c r="G94" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I94" s="1">
+    <row r="94" ht="12.8">
+      <c r="E94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="1">
+        <v>12</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" ht="13.8">
+      <c r="G95" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I95" s="1">
         <v>30</v>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L94" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" ht="53.7">
-      <c r="I95" s="1">
+      <c r="J95" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" ht="53.7">
+      <c r="I96" s="1">
         <v>31</v>
       </c>
-      <c r="J95" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" ht="13.8">
-      <c r="G96" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I96" s="1">
+      <c r="J96" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" ht="13.8">
+      <c r="G97" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I97" s="1">
         <v>32</v>
       </c>
-      <c r="J96" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" ht="13.8">
-      <c r="I97" s="1">
+      <c r="J97" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" ht="13.8">
+      <c r="I98" s="1">
         <v>33</v>
       </c>
-      <c r="J97" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L97" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" ht="13.8">
-      <c r="E98" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="5"/>
+      <c r="J98" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L98" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="99" ht="13.8">
-      <c r="G99" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I99" s="1">
+      <c r="E99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" ht="13.8">
+      <c r="G100" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I100" s="1">
         <v>34</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L99" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" ht="13.8">
-      <c r="I100" s="1">
+      <c r="J100" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8">
+      <c r="I101" s="1">
         <v>35</v>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L100" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" ht="13.8">
-      <c r="G101" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I101" s="1">
+      <c r="J101" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" ht="13.8">
+      <c r="G102" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I102" s="1">
         <v>36</v>
       </c>
-      <c r="J101" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L101" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" ht="13.8">
-      <c r="I102" s="1">
+      <c r="J102" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" ht="13.8">
+      <c r="I103" s="1">
         <v>37</v>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L102" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" ht="13.8">
-      <c r="E103" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J103" s="12"/>
-    </row>
-    <row r="104" ht="64.15">
-      <c r="I104" s="1">
+      <c r="J103" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" ht="13.8">
+      <c r="E104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" s="12"/>
+    </row>
+    <row r="105" ht="64.15">
+      <c r="I105" s="1">
         <v>38</v>
       </c>
-      <c r="J104" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L104" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" ht="13.8">
-      <c r="J105" s="12"/>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" ht="85.05">
-      <c r="I106" s="1">
+      <c r="J105" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" ht="13.8">
+      <c r="J106" s="12"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" ht="85.05">
+      <c r="I107" s="1">
         <v>39</v>
       </c>
-      <c r="J106" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L106" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" ht="13.8">
-      <c r="E107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J107" s="12"/>
+      <c r="J107" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L107" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="108" ht="13.8">
       <c r="E108" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J108" s="12"/>
     </row>
+    <row r="109" ht="13.8">
+      <c r="E109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J109" s="12"/>
+    </row>
+    <row r="112" ht="12.8">
+      <c r="A112" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="124.6">
+      <c r="I113" s="1">
+        <v>42</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" ht="12.8">
+      <c r="B115" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I11 I21:I26 I19 I33:I39 I56:I64 I71:I76 I41:I54 I68 I103 I106:I1048576">
+  <conditionalFormatting sqref="I4:I12 I22:I27 I20 I34:I40 I57:I65 I72:I77 I42:I55 I69 I104 I107:I1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I32 I40 I69:I70 I104:I105 I12:I18 I55 I65:I67 I77:I102">
+  <conditionalFormatting sqref="I28:I33 I41 I70:I71 I105:I106 I13:I19 I56 I66:I68 I78:I103">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I21">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Original/CN/Dialog/Drama/elder_exile.xlsx
+++ b/Original/CN/Dialog/Drama/elder_exile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -74,25 +74,13 @@
 Though this village is far from the world of men, we are not free from trouble. If thou wouldst serve our purpose, we may turn a blind eye.</t>
   </si>
   <si>
-    <t xml:space="preserve">about_issizzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=,*negotiation_darkness,5</t>
+    <t xml:space="preserve">duponne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=,*negotiation_darkness,1</t>
   </si>
   <si>
     <t xml:space="preserve">choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イスシズルについて教えて欲しい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about Issizzle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duponne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=,*negotiation_darkness,1</t>
   </si>
   <si>
     <t xml:space="preserve">イスシズルを知っているか？</t>
@@ -209,11 +197,11 @@
 Keh keh keh... I hear it clearly... the sorrowful cry of that child, forgotten in the deep sea.</t>
   </si>
   <si>
-    <t xml:space="preserve">汝に、深き水底の檻から、デュポンヌを連れ戻して欲しいのだ。
+    <t xml:space="preserve">…汝には、深き水底の檻から、デュポンヌを連れ戻して欲しいのだ。
 果たしてあの子がまだトドのままなのか、あるいは何かしらの化け物へと変じてしまったのか…それは分からぬ。もし救うことが叶わぬならば、悲しき獣に永遠の安らぎを与えてやってくれ。それが我の望みだ。</t>
   </si>
   <si>
-    <t xml:space="preserve">I ask thee, bring Duponne forth from her prison beneath the waves.
+    <t xml:space="preserve">...I ask thee, bring Duponne forth from her prison beneath the waves.
 Whether she remains the sea-lion she once was, or hath become some dreadful monster, I cannot say. If she cannot be saved, then grant the poor beast eternal rest. That is my wish.</t>
   </si>
   <si>
@@ -258,8 +246,8 @@
   </si>
   <si>
     <t xml:space="preserve">古の魔道具、「竜の捕獲玉」を用いれば、あるいはデュポンヌを捕らえることができるやも知れぬ。
-だが…キキキ…あいにくと、この道具を作るための材料が、この村には不足しておってな。
-「ミノタウロスの大角」と呼ばれる希少な素材だが…そういえば、ヨウィンの南あたりで、ミノタウロスの群れが巣を作っていたか、キキキ…</t>
+だが…キキキ…あいにくと、この道具を作るための材料が、この村には不足しているのだ。
+「ミノタウロスの大角」と呼ばれる希少な素材だが…そういえば、ヨウィンの南あたりで、ミノタウロスの群れが巣を作っていたな、キキキ…</t>
   </si>
   <si>
     <r>
@@ -422,8 +410,8 @@
     <t xml:space="preserve">WHIIINE... WHIMPER...</t>
   </si>
   <si>
-    <t xml:space="preserve">デュポンヌ、そうか…そうだったのか、キキキ…
-我はお主を海の底に置き去りにし、果てなき贖罪に囚われていた。だが、数千年の時を経ても、お主は我を見捨てはせなんだのだな。</t>
+    <t xml:space="preserve">デュポンヌ、そうか…そうか、キキキ…
+…我はお主を海の底に置き去りにし、果てなき贖罪に囚われていた。だが、数千年の時を経ても、お主は我を見捨てはせなんだのだな。</t>
   </si>
   <si>
     <t xml:space="preserve">Duponne... so it is... so it is. Keh keh keh...
@@ -436,7 +424,7 @@
     <t xml:space="preserve">WHIMPER... </t>
   </si>
   <si>
-    <t xml:space="preserve">…愚かな我を赦してくれ、デュポンヌ。</t>
+    <t xml:space="preserve">…愚かな我を、赦してくれ、デュポンヌ。</t>
   </si>
   <si>
     <t xml:space="preserve">Forgive me, Duponne... Forgive this foolish soul of mine.</t>
@@ -475,19 +463,6 @@
 Come now, Duponne, come hither. Let us live together once more... as we did in those days at Lurie. Keh keh keh...</t>
   </si>
   <si>
-    <t xml:space="preserve">イスシズルがまだ人間だった頃、王侯貴族はこぞって彼の者に助力を乞うたものだ。キキキ…彼の者の強大な魔力を持ってすれば、地上の国々を支配するなど造作もないことだろう。
-イスシズルが今も朽ちた古城で魔石の研究に明け暮れているのは、つまるところ、人の世界の権力も名声も、彼の者の尺度では塵に等しいためにほかならぬ。
-忘れるなかれ。汝らの相対しようとしている者は、地上のいさかいなどとは別次元の領域にいる。汝らは、神話の門戸に手をかけようとしているのだよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Issizle was yet a man, kings and nobles alike bent their knees to beg his aid. Keh keh keh... With the power he wielded, to subjugate the realms of earth would have been but a trifle.
-Yet he abideth still in his ruined castle, lost in endless study of the magic stones. For to his sight, the crowns and glories of mankind are but dust.
-Forget this not. The one thou wouldst face dwelleth in a realm far beyond the petty quarrels of earth. Thou standest now with thy hand upon the very gates of myth. Keh keh keh...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -496,9 +471,6 @@
 也罢，这村子远离尘世，也总有些自己才知道的麻烦事。如果外人来了能派上些用场，就让他们来吧。</t>
   </si>
   <si>
-    <t xml:space="preserve">请和我讲讲伊斯西泽尔吧</t>
-  </si>
-  <si>
     <t xml:space="preserve">你知道伊斯西泽尔吗？</t>
   </si>
   <si>
@@ -525,17 +497,12 @@
     <t xml:space="preserve">不过…嘻嘻嘻…你也不必急着走…，眼下正好有适合交给你这种冒险者做的工作。如果你能顺利完成的话，也可授予你所渴求的「知识」。我们自古传承的秘术的配方，也许能成为用来击退伊斯西泽尔的武器。</t>
   </si>
   <si>
-    <t xml:space="preserve">嘻嘻嘻…好吧，从哪里开始讲呢。
-你知道吗？这个村子的东南方有个叫露里耶的神殿。众神从地上离去之后，露里耶神殿如今只能可悲地沉入海底…在我还是人类的时候，曾在那个神殿生活过。
-神殿里不知从哪里迷路来了一只暴食海狮幼崽，它叫迪伯妮，对我很亲近。虽然是个愚蠢又贪吃的家伙…嘻嘻嘻…但我对那笨拙可爱的小东西倾注了多到不可思议的感情。</t>
-  </si>
-  <si>
     <t xml:space="preserve">后来我迎来了死亡，但因生前的罪孽，我注定要在这个村子里无尽地赎罪。而这都已经是几千年前的事了。
 从那之后已经度过了漫长的岁月。但不可思议的是…哦哦，时至今日，我还感觉得到！迪伯妮还活着！
 嘻嘻嘻…我可以听到，那孩子被遗忘在海底发出的悲鸣。</t>
   </si>
   <si>
-    <t xml:space="preserve">希望你能把迪伯妮从那深水之狱中带回来。
+    <t xml:space="preserve">…希望你能把迪伯妮从那深水之狱中带回来。
 我不知道那孩子依旧是海狮，还是变成了什么怪物…。如果它已经没有了获救的希望，就请你让那只悲伤的野兽永远的安息。这就是我的愿望。</t>
   </si>
   <si>
@@ -606,8 +573,8 @@
     <t xml:space="preserve">咕噜…咕噜…</t>
   </si>
   <si>
-    <t xml:space="preserve">迪伯妮，这样啊…原来是这样啊，嘻嘻嘻…
-我把你留在了海底，自己则被囚禁在无尽的赎罪中。但时隔千年，你还是没有抛弃我吗。</t>
+    <t xml:space="preserve">迪伯妮，这样啊…这样啊，嘻嘻嘻…
+…我把你留在了海底，自己则被囚禁在无尽的赎罪中。但时隔千年，你还是没有抛弃我吗。</t>
   </si>
   <si>
     <t xml:space="preserve">咕噜…</t>
@@ -629,11 +596,6 @@
     <t xml:space="preserve">好了，迪伯妮。我要快点把你介绍给村里的其他人！
 嘻嘻嘻…不用害怕。大家虽然脸长的很诡异，但都不是坏人。你一定会成为村子里的大明星。
 过来，迪伯妮，来这边。以后我们就一起生活下去，…就像在露里耶的那个时候一样…嘻嘻嘻……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当伊斯西泽尔还是人类的时候，王侯贵族都曾争着乞求他的帮助。嘻嘻嘻…凭他强大的魔力，想支配大地上的王国也仅是不值得一提的小事罢了。
-伊斯西泽尔至今都甘愿在朽烂的古城夜以继日地研究魔石，换句话说，人类世界的权力也好名声也罢，对他而言都与尘埃无异。
-别忘了这点。你们将要面对的敌人，是超脱俗世纷争之人。你们正要叩响神话的大门。</t>
   </si>
 </sst>
 </file>
@@ -1007,12 +969,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L113" sqref="L113"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L106" sqref="L106"/>
+      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -1070,7 +1032,7 @@
     <row r="2" ht="12.8">
       <c r="I2" s="1">
         <f>MAX(I4:I1048576)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -1094,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -1120,16 +1082,16 @@
         <v>18</v>
       </c>
       <c r="I12" s="1">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -1139,28 +1101,31 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="K13" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" ht="12.8">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1169,7 +1134,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>28</v>
@@ -1178,7 +1143,7 @@
         <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -1186,16 +1151,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>32</v>
@@ -1204,7 +1166,7 @@
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -1218,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="I16" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>36</v>
@@ -1227,495 +1189,471 @@
         <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" ht="12.8">
       <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" ht="12.8">
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" ht="12.8">
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="1">
-        <v>7</v>
-      </c>
-      <c r="J18" s="5" t="s">
+    </row>
+    <row r="21" ht="12.8">
+      <c r="E21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" ht="12.8">
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" ht="12.8">
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" ht="12.8">
       <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="113.4">
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" ht="13.8">
+      <c r="I28" s="1">
+        <v>9</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" ht="12.8">
-      <c r="E23" s="1" t="s">
+      <c r="K28" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" ht="12.8">
-      <c r="A26" s="1" t="s">
+      <c r="L28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" ht="113.4">
+      <c r="J29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" ht="91">
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" ht="68.65">
+      <c r="I31" s="1">
+        <v>11</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" ht="23.85">
+      <c r="I32" s="1">
+        <v>12</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="E33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" ht="12.8">
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="113.4">
-      <c r="I28" s="1">
-        <v>8</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" ht="13.8">
-      <c r="I29" s="1">
-        <v>9</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" ht="113.4">
-      <c r="I30" s="1">
-        <v>40</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" ht="91">
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" ht="68.65">
-      <c r="I32" s="1">
-        <v>11</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" ht="23.85">
-      <c r="I33" s="1">
-        <v>12</v>
-      </c>
-      <c r="J33" s="7" t="s">
+    <row r="40" ht="79.85">
+      <c r="I40" s="1">
+        <v>13</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" ht="12.8">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" ht="12.8">
+      <c r="E42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" ht="12.8">
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" ht="12.8">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" ht="12.8">
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" ht="12.8">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" ht="98.5">
+      <c r="I49" s="1">
+        <v>14</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" ht="12.8">
+      <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
-      <c r="E34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="10" t="s">
+    </row>
+    <row r="53" ht="12.8">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" ht="74.6">
+      <c r="I55" s="1">
+        <v>15</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" ht="12.8">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" ht="12.8">
+      <c r="E57" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" ht="12.8">
-      <c r="E37" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" ht="79.85">
-      <c r="I41" s="1">
-        <v>13</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" ht="12.8">
-      <c r="E43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
-      <c r="B44" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
-      <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
-      <c r="A49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" ht="98.5">
-      <c r="I50" s="1">
-        <v>14</v>
-      </c>
-      <c r="J50" s="7" t="s">
+      <c r="F57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" ht="12.8">
-      <c r="E52" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
-      <c r="A54" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" ht="74.6">
-      <c r="I56" s="1">
-        <v>15</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
-      <c r="F57" s="10"/>
     </row>
     <row r="58" ht="12.8">
       <c r="E58" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" ht="12.8">
       <c r="E59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" ht="12.8">
+      <c r="A63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" ht="46.25">
+      <c r="I65" s="1">
+        <v>16</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" ht="13.8">
+      <c r="I66" s="1">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="K66" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" ht="12.8">
-      <c r="E60" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
-      <c r="A64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" ht="46.25">
-      <c r="I66" s="1">
-        <v>16</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="L66" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" ht="13.8">
       <c r="I67" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" ht="12.8">
+      <c r="E68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K67" s="5" t="s">
+    </row>
+    <row r="69" ht="57.45">
+      <c r="I69" s="1">
+        <v>19</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" ht="13.8">
-      <c r="I68" s="1">
-        <v>18</v>
-      </c>
-      <c r="J68" s="9" t="s">
+      <c r="K69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="L69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8">
+      <c r="I70" s="1">
+        <v>20</v>
+      </c>
+      <c r="J70" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
-      <c r="E69" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="K70" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" ht="57.45">
-      <c r="I70" s="1">
-        <v>19</v>
-      </c>
-      <c r="J70" s="7" t="s">
+      <c r="L70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" ht="12.8">
+      <c r="E71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" ht="13.8">
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" ht="12.8">
+      <c r="E73" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" ht="12.8">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" ht="13.8">
+      <c r="I77" s="1">
+        <v>21</v>
+      </c>
+      <c r="J77" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K77" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" ht="13.8">
-      <c r="I71" s="1">
-        <v>20</v>
-      </c>
-      <c r="J71" s="9" t="s">
+      <c r="L77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" ht="13.8">
+      <c r="E78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="F78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
-      <c r="E72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" ht="13.8">
-      <c r="J73" s="9"/>
-    </row>
-    <row r="74" ht="12.8">
-      <c r="E74" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
-      <c r="A76" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" ht="13.8">
-      <c r="I78" s="1">
-        <v>21</v>
-      </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="9"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" ht="13.8">
+      <c r="G79" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K78" s="6" t="s">
+      <c r="I79" s="1">
+        <v>22</v>
+      </c>
+      <c r="J79" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" ht="13.8">
-      <c r="E79" s="1" t="s">
+      <c r="K79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="L79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" ht="35.05">
+      <c r="I80" s="1">
+        <v>23</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" ht="13.8">
-      <c r="G80" s="11" t="s">
+      <c r="K80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I80" s="1">
-        <v>22</v>
-      </c>
-      <c r="J80" s="9" t="s">
+      <c r="L80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" ht="12.8">
+      <c r="E81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" ht="13.8">
+      <c r="G82" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="1">
+        <v>24</v>
+      </c>
+      <c r="J82" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K80" s="6" t="s">
+      <c r="K82" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" ht="35.05">
-      <c r="I81" s="1">
-        <v>23</v>
-      </c>
-      <c r="J81" s="7" t="s">
+      <c r="L82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" ht="46.25">
+      <c r="G83" s="11"/>
+      <c r="I83" s="1">
+        <v>25</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" ht="12.8">
-      <c r="E82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" ht="13.8">
-      <c r="G83" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I83" s="1">
-        <v>24</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="L83" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" ht="46.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" ht="13.8">
       <c r="G84" s="11"/>
-      <c r="I84" s="1">
-        <v>25</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L84" t="s">
-        <v>157</v>
-      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="5"/>
     </row>
     <row r="85" ht="13.8">
       <c r="G85" s="11"/>
@@ -1723,320 +1661,291 @@
       <c r="K85" s="5"/>
     </row>
     <row r="86" ht="13.8">
-      <c r="G86" s="11"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="5"/>
+      <c r="G86" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="1">
+        <v>26</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L86" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="87" ht="13.8">
-      <c r="G87" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="G87" s="11"/>
       <c r="I87" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J87" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" ht="13.8">
+      <c r="G88" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I88" s="1">
+        <v>28</v>
+      </c>
+      <c r="J88" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K87" s="6" t="s">
+      <c r="K88" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" ht="13.8">
-      <c r="G88" s="11"/>
-      <c r="I88" s="1">
-        <v>27</v>
-      </c>
-      <c r="J88" s="9" t="s">
+      <c r="L88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" ht="68.65">
+      <c r="G89" s="11"/>
+      <c r="I89" s="1">
+        <v>29</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="K89" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" ht="13.8">
-      <c r="G89" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I89" s="1">
-        <v>28</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="L89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" ht="68.65">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" ht="13.8">
       <c r="G90" s="11"/>
-      <c r="I90" s="1">
-        <v>29</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L90" t="s">
-        <v>161</v>
-      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="5"/>
     </row>
     <row r="91" ht="13.8">
       <c r="G91" s="11"/>
       <c r="J91" s="9"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" ht="13.8">
-      <c r="G92" s="11"/>
-      <c r="J92" s="9"/>
+    <row r="92" ht="12.8">
+      <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
     <row r="93" ht="12.8">
+      <c r="E93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="1">
+        <v>12</v>
+      </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" ht="12.8">
-      <c r="E94" s="1" t="s">
+    <row r="94" ht="13.8">
+      <c r="G94" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" s="1">
+        <v>30</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" ht="53.7">
+      <c r="I95" s="1">
+        <v>31</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="1">
-        <v>12</v>
-      </c>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" ht="13.8">
-      <c r="G95" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I95" s="1">
-        <v>30</v>
-      </c>
-      <c r="J95" s="12" t="s">
+      <c r="L95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" ht="13.8">
+      <c r="G96" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I96" s="1">
+        <v>32</v>
+      </c>
+      <c r="J96" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K95" s="6" t="s">
+      <c r="K96" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L95" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" ht="53.7">
-      <c r="I96" s="1">
-        <v>31</v>
-      </c>
-      <c r="J96" s="7" t="s">
+      <c r="L96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" ht="13.8">
+      <c r="I97" s="1">
+        <v>33</v>
+      </c>
+      <c r="J97" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K97" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L96" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" ht="13.8">
-      <c r="G97" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I97" s="1">
-        <v>32</v>
-      </c>
-      <c r="J97" s="12" t="s">
+      <c r="L97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" ht="13.8">
+      <c r="E98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" ht="13.8">
+      <c r="G99" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I99" s="1">
+        <v>34</v>
+      </c>
+      <c r="J99" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K97" s="6" t="s">
+      <c r="K99" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="L97" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" ht="13.8">
-      <c r="I98" s="1">
-        <v>33</v>
-      </c>
-      <c r="J98" s="9" t="s">
+      <c r="L99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" ht="13.8">
+      <c r="I100" s="1">
+        <v>35</v>
+      </c>
+      <c r="J100" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K100" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L98" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" ht="13.8">
-      <c r="E99" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="5"/>
-    </row>
-    <row r="100" ht="13.8">
-      <c r="G100" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I100" s="1">
-        <v>34</v>
-      </c>
-      <c r="J100" s="9" t="s">
+      <c r="L100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8">
+      <c r="G101" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="I101" s="1">
+        <v>36</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" ht="13.8">
+      <c r="I102" s="1">
+        <v>37</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" ht="13.8">
+      <c r="E103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J103" s="12"/>
+    </row>
+    <row r="104" ht="64.15">
+      <c r="I104" s="1">
+        <v>38</v>
+      </c>
+      <c r="J104" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" ht="13.8">
-      <c r="I101" s="1">
-        <v>35</v>
-      </c>
-      <c r="J101" s="12" t="s">
+      <c r="K104" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K101" s="6" t="s">
+      <c r="L104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" ht="13.8">
+      <c r="J105" s="12"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" ht="85.05">
+      <c r="I106" s="1">
+        <v>39</v>
+      </c>
+      <c r="J106" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L101" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="102" ht="13.8">
-      <c r="G102" s="1" t="s">
+      <c r="K106" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I102" s="1">
-        <v>36</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L102" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103" ht="13.8">
-      <c r="I103" s="1">
-        <v>37</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L103" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" ht="13.8">
-      <c r="E104" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J104" s="12"/>
-    </row>
-    <row r="105" ht="64.15">
-      <c r="I105" s="1">
-        <v>38</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L105" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" ht="13.8">
-      <c r="J106" s="12"/>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" ht="85.05">
-      <c r="I107" s="1">
-        <v>39</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L107" t="s">
-        <v>169</v>
-      </c>
+      <c r="L106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" ht="13.8">
+      <c r="E107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J107" s="12"/>
     </row>
     <row r="108" ht="13.8">
       <c r="E108" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" ht="13.8">
-      <c r="E109" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J109" s="12"/>
-    </row>
-    <row r="112" ht="12.8">
-      <c r="A112" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" ht="124.6">
-      <c r="I113" s="1">
-        <v>42</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="L113" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" ht="12.8">
-      <c r="B115" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I4:I12 I22:I27 I20 I34:I40 I57:I65 I72:I77 I42:I55 I69 I104 I107:I1048576">
+  <conditionalFormatting sqref="I4:I11 I21:I26 I19 I33:I39 I56:I64 I71:I76 I41:I54 I68 I103 I106:I1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I33 I41 I70:I71 I105:I106 I13:I19 I56 I66:I68 I78:I103">
+  <conditionalFormatting sqref="I27:I32 I40 I69:I70 I104:I105 I12:I18 I55 I65:I67 I77:I102">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="I20">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
